--- a/SchVictorina.WebAPI/Config/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/rivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CEA5D-4D4E-49C7-9E38-610D37C7EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E55729-9945-46D5-AF51-26BB9F16028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -867,9 +867,6 @@
     <t>Какая река впадает в {Впадает в}</t>
   </si>
   <si>
-    <t>Во что впадает река {Река}?</t>
-  </si>
-  <si>
     <t>Пясина</t>
   </si>
   <si>
@@ -901,6 +898,9 @@
   </si>
   <si>
     <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Во что впадает река {Название}?</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB528420-7780-449B-9733-531323FF703A}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>130</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>133</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>96</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>91</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>258</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>160</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>205</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>261</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>262</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>202</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>136</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>257</v>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99941-53E7-45AA-9340-AE25C5ED6C6A}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>

--- a/SchVictorina.WebAPI/Config/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/rivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E55729-9945-46D5-AF51-26BB9F16028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5579A7-F4A6-4406-8EA0-68CE07323894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -855,9 +855,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>Какая самая длинная река в России?</t>
-  </si>
-  <si>
     <t>Длина</t>
   </si>
   <si>
@@ -901,6 +898,9 @@
   </si>
   <si>
     <t>Во что впадает река {Название}?</t>
+  </si>
+  <si>
+    <t>Какая самая длинная река в {Страна}?</t>
   </si>
 </sst>
 </file>
@@ -1359,33 +1359,33 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1623,9 +1623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>130</v>
@@ -1640,7 +1640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1674,9 +1674,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>133</v>
@@ -1691,7 +1691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>168</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1912,9 +1912,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>96</v>
@@ -1929,9 +1929,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>91</v>
@@ -1946,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -1963,9 +1963,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>258</v>
@@ -1980,7 +1980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2082,9 +2082,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>160</v>
@@ -2099,9 +2099,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>205</v>
@@ -2116,9 +2116,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>261</v>
@@ -2133,7 +2133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
@@ -2303,9 +2303,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>262</v>
@@ -2320,9 +2320,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>202</v>
@@ -2337,7 +2337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -2439,9 +2439,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>136</v>
@@ -2456,7 +2456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>212</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>34</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
@@ -2592,9 +2592,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>257</v>
@@ -2609,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>48</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>191</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -2690,21 +2690,21 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>263</v>
       </c>
@@ -2724,28 +2724,28 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
         <v>269</v>
-      </c>
-      <c r="C2" t="s">
-        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>

--- a/SchVictorina.WebAPI/Config/rivers.xlsx
+++ b/SchVictorina.WebAPI/Config/rivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5579A7-F4A6-4406-8EA0-68CE07323894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BBCA6-4B82-4DCA-B557-DFEBB6955DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3F4C5060-D6C0-4319-8B9F-A5EA184C6378}"/>
   </bookViews>
@@ -861,9 +861,6 @@
     <t>Расход воды</t>
   </si>
   <si>
-    <t>Какая река впадает в {Впадает в}</t>
-  </si>
-  <si>
     <t>Пясина</t>
   </si>
   <si>
@@ -897,10 +894,13 @@
     <t>Воронеж</t>
   </si>
   <si>
+    <t>Какая самая длинная река в {Страна}?</t>
+  </si>
+  <si>
+    <t>Какая река впадает в {Впадает в}?</t>
+  </si>
+  <si>
     <t>Во что впадает река {Название}?</t>
-  </si>
-  <si>
-    <t>Какая самая длинная река в {Страна}?</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>130</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>133</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>96</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>91</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>258</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>160</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>205</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>261</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>262</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>202</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>136</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>257</v>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>269</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
